--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>Adam22</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H2">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I2">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J2">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46712912813091</v>
+        <v>1.715363</v>
       </c>
       <c r="N2">
-        <v>1.46712912813091</v>
+        <v>5.146089</v>
       </c>
       <c r="O2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="P2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="Q2">
-        <v>10.62655201877886</v>
+        <v>0.005927150952666667</v>
       </c>
       <c r="R2">
-        <v>10.62655201877886</v>
+        <v>0.053344358574</v>
       </c>
       <c r="S2">
-        <v>0.1626106556070928</v>
+        <v>7.93155649478202E-05</v>
       </c>
       <c r="T2">
-        <v>0.1626106556070928</v>
+        <v>7.931556494782018E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H3">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I3">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J3">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.08748137927263</v>
+        <v>1.134481666666667</v>
       </c>
       <c r="N3">
-        <v>1.08748137927263</v>
+        <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092277</v>
       </c>
       <c r="P3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092278</v>
       </c>
       <c r="Q3">
-        <v>7.876728247510365</v>
+        <v>0.003920012318888889</v>
       </c>
       <c r="R3">
-        <v>7.876728247510365</v>
+        <v>0.03528011087</v>
       </c>
       <c r="S3">
-        <v>0.1205320354243891</v>
+        <v>5.245656710247993E-05</v>
       </c>
       <c r="T3">
-        <v>0.1205320354243891</v>
+        <v>5.245656710247993E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H4">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I4">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J4">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.655522186067547</v>
+        <v>0.8505606666666666</v>
       </c>
       <c r="N4">
-        <v>0.655522186067547</v>
+        <v>2.551682</v>
       </c>
       <c r="O4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="P4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="Q4">
-        <v>4.748007844807008</v>
+        <v>0.002938970623555555</v>
       </c>
       <c r="R4">
-        <v>4.748007844807008</v>
+        <v>0.026450735612</v>
       </c>
       <c r="S4">
-        <v>0.07265542643627972</v>
+        <v>3.932852684770584E-05</v>
       </c>
       <c r="T4">
-        <v>0.07265542643627972</v>
+        <v>3.932852684770584E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H5">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I5">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J5">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17277375825517</v>
+        <v>2.293933666666666</v>
       </c>
       <c r="N5">
-        <v>2.17277375825517</v>
+        <v>6.881800999999999</v>
       </c>
       <c r="O5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="P5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="Q5">
-        <v>15.73760136338593</v>
+        <v>0.007926305462888887</v>
       </c>
       <c r="R5">
-        <v>15.73760136338593</v>
+        <v>0.071336749166</v>
       </c>
       <c r="S5">
-        <v>0.2408214509147379</v>
+        <v>0.0001060677213653852</v>
       </c>
       <c r="T5">
-        <v>0.2408214509147379</v>
+        <v>0.0001060677213653852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>7.24309252336695</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H6">
-        <v>7.24309252336695</v>
+        <v>0.010366</v>
       </c>
       <c r="I6">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J6">
-        <v>0.9596406668334153</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.27530090617374</v>
+        <v>0.1715316666666667</v>
       </c>
       <c r="N6">
-        <v>3.27530090617374</v>
+        <v>0.514595</v>
       </c>
       <c r="O6">
-        <v>0.3782885730018076</v>
+        <v>0.01765854055925821</v>
       </c>
       <c r="P6">
-        <v>0.3782885730018076</v>
+        <v>0.01765854055925821</v>
       </c>
       <c r="Q6">
-        <v>23.72330750528401</v>
+        <v>0.0005926990855555555</v>
       </c>
       <c r="R6">
-        <v>23.72330750528401</v>
+        <v>0.00533429177</v>
       </c>
       <c r="S6">
-        <v>0.3630210984509157</v>
+        <v>7.931342257066197E-06</v>
       </c>
       <c r="T6">
-        <v>0.3630210984509157</v>
+        <v>7.931342257066197E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.304620671476514</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H7">
-        <v>0.304620671476514</v>
+        <v>0.010366</v>
       </c>
       <c r="I7">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533279</v>
       </c>
       <c r="J7">
-        <v>0.0403593331665846</v>
+        <v>0.0004491504963533278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.46712912813091</v>
+        <v>3.547937</v>
       </c>
       <c r="N7">
-        <v>1.46712912813091</v>
+        <v>10.643811</v>
       </c>
       <c r="O7">
-        <v>0.1694495254600549</v>
+        <v>0.3652467829041842</v>
       </c>
       <c r="P7">
-        <v>0.1694495254600549</v>
+        <v>0.3652467829041842</v>
       </c>
       <c r="Q7">
-        <v>0.4469178601539904</v>
+        <v>0.01225930498066666</v>
       </c>
       <c r="R7">
-        <v>0.4469178601539904</v>
+        <v>0.110333744826</v>
       </c>
       <c r="S7">
-        <v>0.006838869852962014</v>
+        <v>0.0001640507738328705</v>
       </c>
       <c r="T7">
-        <v>0.006838869852962014</v>
+        <v>0.0001640507738328705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.304620671476514</v>
+        <v>7.314644999999999</v>
       </c>
       <c r="H8">
-        <v>0.304620671476514</v>
+        <v>21.943935</v>
       </c>
       <c r="I8">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788118</v>
       </c>
       <c r="J8">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08748137927263</v>
+        <v>1.715363</v>
       </c>
       <c r="N8">
-        <v>1.08748137927263</v>
+        <v>5.146089</v>
       </c>
       <c r="O8">
-        <v>0.1256012167784802</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="P8">
-        <v>0.1256012167784802</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="Q8">
-        <v>0.3312693079722342</v>
+        <v>12.547271391135</v>
       </c>
       <c r="R8">
-        <v>0.3312693079722342</v>
+        <v>112.925442520215</v>
       </c>
       <c r="S8">
-        <v>0.005069181354091099</v>
+        <v>0.1679042641041139</v>
       </c>
       <c r="T8">
-        <v>0.005069181354091099</v>
+        <v>0.1679042641041139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.304620671476514</v>
+        <v>7.314644999999999</v>
       </c>
       <c r="H9">
-        <v>0.304620671476514</v>
+        <v>21.943935</v>
       </c>
       <c r="I9">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788118</v>
       </c>
       <c r="J9">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.655522186067547</v>
+        <v>1.134481666666667</v>
       </c>
       <c r="N9">
-        <v>0.655522186067547</v>
+        <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.0757110749339388</v>
+        <v>0.1167906248092277</v>
       </c>
       <c r="P9">
-        <v>0.0757110749339388</v>
+        <v>0.1167906248092278</v>
       </c>
       <c r="Q9">
-        <v>0.1996856084876485</v>
+        <v>8.298330650674998</v>
       </c>
       <c r="R9">
-        <v>0.1996856084876485</v>
+        <v>74.68497585607498</v>
       </c>
       <c r="S9">
-        <v>0.003055648497659088</v>
+        <v>0.1110460639417285</v>
       </c>
       <c r="T9">
-        <v>0.003055648497659088</v>
+        <v>0.1110460639417285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.304620671476514</v>
+        <v>7.314644999999999</v>
       </c>
       <c r="H10">
-        <v>0.304620671476514</v>
+        <v>21.943935</v>
       </c>
       <c r="I10">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788118</v>
       </c>
       <c r="J10">
-        <v>0.0403593331665846</v>
+        <v>0.9508131677788116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17277375825517</v>
+        <v>0.8505606666666666</v>
       </c>
       <c r="N10">
-        <v>2.17277375825517</v>
+        <v>2.551682</v>
       </c>
       <c r="O10">
-        <v>0.2509496098257186</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="P10">
-        <v>0.2509496098257186</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="Q10">
-        <v>0.6618718012062388</v>
+        <v>6.221549327629998</v>
       </c>
       <c r="R10">
-        <v>0.6618718012062388</v>
+        <v>55.99394394866999</v>
       </c>
       <c r="S10">
-        <v>0.01012815891098059</v>
+        <v>0.08325512606519504</v>
       </c>
       <c r="T10">
-        <v>0.01012815891098059</v>
+        <v>0.08325512606519503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H11">
+        <v>21.943935</v>
+      </c>
+      <c r="I11">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J11">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q11">
+        <v>16.77931042521499</v>
+      </c>
+      <c r="R11">
+        <v>151.013793826935</v>
+      </c>
+      <c r="S11">
+        <v>0.2245362901061281</v>
+      </c>
+      <c r="T11">
+        <v>0.2245362901061281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H12">
+        <v>21.943935</v>
+      </c>
+      <c r="I12">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J12">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.514595</v>
+      </c>
+      <c r="O12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q12">
+        <v>1.254693247925</v>
+      </c>
+      <c r="R12">
+        <v>11.292239231325</v>
+      </c>
+      <c r="S12">
+        <v>0.01678997288749893</v>
+      </c>
+      <c r="T12">
+        <v>0.01678997288749893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.314644999999999</v>
+      </c>
+      <c r="H13">
+        <v>21.943935</v>
+      </c>
+      <c r="I13">
+        <v>0.9508131677788118</v>
+      </c>
+      <c r="J13">
+        <v>0.9508131677788116</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.547937</v>
+      </c>
+      <c r="N13">
+        <v>10.643811</v>
+      </c>
+      <c r="O13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q13">
+        <v>25.95189963736499</v>
+      </c>
+      <c r="R13">
+        <v>233.567096736285</v>
+      </c>
+      <c r="S13">
+        <v>0.3472814506741473</v>
+      </c>
+      <c r="T13">
+        <v>0.3472814506741473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.374941</v>
+      </c>
+      <c r="H14">
+        <v>1.124823</v>
+      </c>
+      <c r="I14">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J14">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.715363</v>
+      </c>
+      <c r="N14">
+        <v>5.146089</v>
+      </c>
+      <c r="O14">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="P14">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="Q14">
+        <v>0.643159918583</v>
+      </c>
+      <c r="R14">
+        <v>5.788439267247001</v>
+      </c>
+      <c r="S14">
+        <v>0.008606595766091255</v>
+      </c>
+      <c r="T14">
+        <v>0.008606595766091255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.304620671476514</v>
-      </c>
-      <c r="H11">
-        <v>0.304620671476514</v>
-      </c>
-      <c r="I11">
-        <v>0.0403593331665846</v>
-      </c>
-      <c r="J11">
-        <v>0.0403593331665846</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="N11">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="O11">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="P11">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="Q11">
-        <v>0.9977243613262795</v>
-      </c>
-      <c r="R11">
-        <v>0.9977243613262795</v>
-      </c>
-      <c r="S11">
-        <v>0.01526747455089181</v>
-      </c>
-      <c r="T11">
-        <v>0.01526747455089181</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.374941</v>
+      </c>
+      <c r="H15">
+        <v>1.124823</v>
+      </c>
+      <c r="I15">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J15">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.134481666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.403445</v>
+      </c>
+      <c r="O15">
+        <v>0.1167906248092277</v>
+      </c>
+      <c r="P15">
+        <v>0.1167906248092278</v>
+      </c>
+      <c r="Q15">
+        <v>0.4253636905816667</v>
+      </c>
+      <c r="R15">
+        <v>3.828273215235</v>
+      </c>
+      <c r="S15">
+        <v>0.005692104300396758</v>
+      </c>
+      <c r="T15">
+        <v>0.005692104300396759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.374941</v>
+      </c>
+      <c r="H16">
+        <v>1.124823</v>
+      </c>
+      <c r="I16">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J16">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8505606666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.551682</v>
+      </c>
+      <c r="O16">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="P16">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="Q16">
+        <v>0.3189100669206667</v>
+      </c>
+      <c r="R16">
+        <v>2.870190602286</v>
+      </c>
+      <c r="S16">
+        <v>0.004267570090142488</v>
+      </c>
+      <c r="T16">
+        <v>0.004267570090142488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.374941</v>
+      </c>
+      <c r="H17">
+        <v>1.124823</v>
+      </c>
+      <c r="I17">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J17">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N17">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P17">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q17">
+        <v>0.8600897829136666</v>
+      </c>
+      <c r="R17">
+        <v>7.740808046223</v>
+      </c>
+      <c r="S17">
+        <v>0.01150949378249823</v>
+      </c>
+      <c r="T17">
+        <v>0.01150949378249824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.374941</v>
+      </c>
+      <c r="H18">
+        <v>1.124823</v>
+      </c>
+      <c r="I18">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J18">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.514595</v>
+      </c>
+      <c r="O18">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P18">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q18">
+        <v>0.06431425463166666</v>
+      </c>
+      <c r="R18">
+        <v>0.5788282916850001</v>
+      </c>
+      <c r="S18">
+        <v>0.000860636329502216</v>
+      </c>
+      <c r="T18">
+        <v>0.000860636329502216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.374941</v>
+      </c>
+      <c r="H19">
+        <v>1.124823</v>
+      </c>
+      <c r="I19">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="J19">
+        <v>0.04873768172483497</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.547937</v>
+      </c>
+      <c r="N19">
+        <v>10.643811</v>
+      </c>
+      <c r="O19">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P19">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q19">
+        <v>1.330267046717</v>
+      </c>
+      <c r="R19">
+        <v>11.972403420453</v>
+      </c>
+      <c r="S19">
+        <v>0.01780128145620402</v>
+      </c>
+      <c r="T19">
+        <v>0.01780128145620403</v>
       </c>
     </row>
   </sheetData>
